--- a/Supplementary_Material RSOS.xlsx
+++ b/Supplementary_Material RSOS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4D9BD4-91E9-4B46-863B-03A76912E9EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41F2595-A1A1-450F-BB6D-C861C502F733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -158,7 +158,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -218,26 +218,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -257,7 +242,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -279,18 +263,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -335,7 +321,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Main!$C$15</c:f>
+              <c:f>Main!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -368,7 +354,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Main!$D$14:$F$14</c:f>
+              <c:f>Main!$C$2:$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -385,7 +371,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Main!$D$15:$F$15</c:f>
+              <c:f>Main!$C$3:$E$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -412,7 +398,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Main!$C$16</c:f>
+              <c:f>Main!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -445,7 +431,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Main!$D$14:$F$14</c:f>
+              <c:f>Main!$C$2:$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -462,7 +448,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Main!$D$16:$F$16</c:f>
+              <c:f>Main!$C$4:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -489,7 +475,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Main!$C$17</c:f>
+              <c:f>Main!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -522,7 +508,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Main!$D$14:$F$14</c:f>
+              <c:f>Main!$C$2:$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -539,7 +525,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Main!$D$17:$F$17</c:f>
+              <c:f>Main!$C$5:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -650,7 +636,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Main!$C$40</c:f>
+              <c:f>Main!$B$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -683,7 +669,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Main!$D$39:$F$39</c:f>
+              <c:f>Main!$C$25:$E$25</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -700,7 +686,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Main!$D$40:$F$40</c:f>
+              <c:f>Main!$C$26:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -727,7 +713,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Main!$C$41</c:f>
+              <c:f>Main!$B$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -760,7 +746,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Main!$D$39:$F$39</c:f>
+              <c:f>Main!$C$25:$E$25</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -777,7 +763,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Main!$D$41:$F$41</c:f>
+              <c:f>Main!$C$27:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -804,7 +790,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Main!$C$42</c:f>
+              <c:f>Main!$B$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -837,7 +823,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Main!$D$39:$F$39</c:f>
+              <c:f>Main!$C$25:$E$25</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -854,7 +840,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Main!$D$42:$F$42</c:f>
+              <c:f>Main!$C$28:$E$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -965,7 +951,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Main!$C$63</c:f>
+              <c:f>Main!$B$49</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -998,7 +984,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Main!$D$62:$F$62</c:f>
+              <c:f>Main!$C$48:$E$48</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1015,7 +1001,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Main!$D$63:$F$63</c:f>
+              <c:f>Main!$C$49:$E$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1042,7 +1028,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Main!$C$64</c:f>
+              <c:f>Main!$B$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1075,7 +1061,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Main!$D$62:$F$62</c:f>
+              <c:f>Main!$C$48:$E$48</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1092,7 +1078,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Main!$D$64:$F$64</c:f>
+              <c:f>Main!$C$50:$E$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1119,7 +1105,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Main!$C$65</c:f>
+              <c:f>Main!$B$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1152,7 +1138,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Main!$D$62:$F$62</c:f>
+              <c:f>Main!$C$48:$E$48</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1169,7 +1155,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Main!$D$65:$F$65</c:f>
+              <c:f>Main!$C$51:$E$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1283,7 +1269,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Main!$E$94</c:f>
+              <c:f>Main!$C$71</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1316,7 +1302,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Main!$D$95:$D$103</c:f>
+              <c:f>Main!$B$72:$B$80</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -1351,7 +1337,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Main!$E$95:$E$103</c:f>
+              <c:f>Main!$C$72:$C$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1483,7 +1469,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Main!$E$126</c:f>
+              <c:f>Main!$C$100</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1516,7 +1502,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Main!$D$127:$D$135</c:f>
+              <c:f>Main!$B$101:$B$109</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -1551,7 +1537,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Main!$E$127:$E$135</c:f>
+              <c:f>Main!$C$101:$C$109</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1658,16 +1644,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>757237</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>20637</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1033462</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1854200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1694,16 +1680,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>776287</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1052512</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1898650</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1730,16 +1716,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>509587</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>26987</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>785812</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1885950</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1766,16 +1752,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>414337</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1587</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>690562</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1873250</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1802,16 +1788,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>776287</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7937</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>3174</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1052512</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1917700</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>177799</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2126,745 +2112,451 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C13:AB155"/>
+  <dimension ref="B1:AA136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="2" max="2" width="20.6328125" customWidth="1"/>
+    <col min="3" max="3" width="29.1796875" customWidth="1"/>
     <col min="4" max="4" width="30.453125" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
     <col min="6" max="6" width="27.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="16"/>
-    </row>
-    <row r="14" spans="3:28" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C14" s="19" t="s">
+    <row r="1" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R14" s="16"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="16"/>
-      <c r="AB14" s="16"/>
-    </row>
-    <row r="15" spans="3:28" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="2" t="s">
+    </row>
+    <row r="3" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="2">
+      <c r="C3" s="8">
         <v>1.2</v>
       </c>
-      <c r="E15" s="4">
+      <c r="D3" s="9">
         <v>1.2</v>
       </c>
-      <c r="F15" s="4">
+      <c r="E3" s="9">
         <v>0.65</v>
       </c>
-      <c r="R15" s="16"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="16"/>
-      <c r="AA15" s="16"/>
-      <c r="AB15" s="16"/>
-    </row>
-    <row r="16" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C16" s="2" t="s">
+    </row>
+    <row r="4" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="2">
+      <c r="C4" s="5">
         <v>1</v>
       </c>
-      <c r="E16" s="4">
+      <c r="D4" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F16" s="4">
+      <c r="E4" s="3">
         <v>0.6</v>
       </c>
-      <c r="R16" s="16"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="16"/>
-      <c r="AB16" s="16"/>
-    </row>
-    <row r="17" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C17" s="2" t="s">
+    </row>
+    <row r="5" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="2">
+      <c r="C5" s="5">
         <v>1.5</v>
       </c>
-      <c r="E17" s="4">
+      <c r="D5" s="3">
         <v>1.3</v>
       </c>
-      <c r="F17" s="4">
+      <c r="E5" s="3">
         <v>0.62</v>
       </c>
-      <c r="R17" s="16"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="16"/>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.35">
-      <c r="R18" s="16"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.35">
-      <c r="R19" s="16"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="18"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="16"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.35">
-      <c r="K20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="16"/>
-      <c r="AA20" s="16"/>
-      <c r="AB20" s="16"/>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.35">
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="16"/>
-      <c r="Z21" s="16"/>
-      <c r="AA21" s="16"/>
-      <c r="AB21" s="16"/>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.35">
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="16"/>
-      <c r="Z22" s="16"/>
-      <c r="AA22" s="16"/>
-      <c r="AB22" s="16"/>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.35">
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="16"/>
-      <c r="Y23" s="16"/>
-      <c r="Z23" s="16"/>
-      <c r="AA23" s="16"/>
-      <c r="AB23" s="16"/>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.35">
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="16"/>
-      <c r="Y24" s="16"/>
-      <c r="Z24" s="16"/>
-      <c r="AA24" s="16"/>
-      <c r="AB24" s="16"/>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.35">
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="16"/>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="16"/>
-      <c r="Z25" s="16"/>
-      <c r="AA25" s="16"/>
-      <c r="AB25" s="16"/>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.35">
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
-      <c r="X26" s="16"/>
-      <c r="Y26" s="16"/>
-      <c r="Z26" s="16"/>
-      <c r="AA26" s="16"/>
-      <c r="AB26" s="16"/>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.35">
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="16"/>
-      <c r="Y27" s="16"/>
-      <c r="Z27" s="16"/>
-      <c r="AA27" s="16"/>
-      <c r="AB27" s="16"/>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.35">
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="16"/>
-      <c r="X28" s="16"/>
-      <c r="Y28" s="16"/>
-      <c r="Z28" s="16"/>
-      <c r="AA28" s="16"/>
-      <c r="AB28" s="16"/>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.35">
-      <c r="R29" s="16"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="16"/>
-      <c r="U29" s="16"/>
-      <c r="V29" s="16"/>
-      <c r="W29" s="16"/>
-      <c r="X29" s="16"/>
-      <c r="Y29" s="16"/>
-      <c r="Z29" s="16"/>
-      <c r="AA29" s="16"/>
-      <c r="AB29" s="16"/>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.35">
-      <c r="R30" s="16"/>
-      <c r="S30" s="16"/>
-      <c r="T30" s="16"/>
-      <c r="U30" s="16"/>
-      <c r="V30" s="16"/>
-      <c r="W30" s="16"/>
-      <c r="X30" s="16"/>
-      <c r="Y30" s="16"/>
-      <c r="Z30" s="16"/>
-      <c r="AA30" s="16"/>
-      <c r="AB30" s="16"/>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.35">
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16"/>
-      <c r="U31" s="16"/>
-      <c r="V31" s="16"/>
-      <c r="W31" s="16"/>
-      <c r="X31" s="16"/>
-      <c r="Y31" s="16"/>
-      <c r="Z31" s="16"/>
-      <c r="AA31" s="16"/>
-      <c r="AB31" s="16"/>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.35">
-      <c r="R32" s="16"/>
-      <c r="S32" s="16"/>
-      <c r="T32" s="16"/>
-      <c r="U32" s="16"/>
-      <c r="V32" s="16"/>
-      <c r="W32" s="16"/>
-      <c r="X32" s="16"/>
-      <c r="Y32" s="16"/>
-      <c r="Z32" s="16"/>
-      <c r="AA32" s="16"/>
-      <c r="AB32" s="16"/>
-    </row>
-    <row r="33" spans="3:28" x14ac:dyDescent="0.35">
-      <c r="R33" s="16"/>
-      <c r="S33" s="16"/>
-      <c r="T33" s="16"/>
-      <c r="U33" s="16"/>
-      <c r="V33" s="16"/>
-      <c r="W33" s="16"/>
-      <c r="X33" s="16"/>
-      <c r="Y33" s="16"/>
-      <c r="Z33" s="16"/>
-      <c r="AA33" s="16"/>
-      <c r="AB33" s="16"/>
-    </row>
-    <row r="34" spans="3:28" x14ac:dyDescent="0.35">
-      <c r="R34" s="16"/>
-      <c r="S34" s="16"/>
-      <c r="T34" s="16"/>
-      <c r="U34" s="16"/>
-      <c r="V34" s="16"/>
-      <c r="W34" s="16"/>
-      <c r="X34" s="16"/>
-      <c r="Y34" s="16"/>
-      <c r="Z34" s="16"/>
-      <c r="AA34" s="16"/>
-      <c r="AB34" s="16"/>
-    </row>
-    <row r="35" spans="3:28" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D35" s="15" t="s">
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+    </row>
+    <row r="22" spans="2:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="R35" s="16"/>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
-      <c r="U35" s="16"/>
-      <c r="V35" s="16"/>
-      <c r="W35" s="16"/>
-      <c r="X35" s="16"/>
-      <c r="Y35" s="16"/>
-      <c r="Z35" s="16"/>
-      <c r="AA35" s="16"/>
-      <c r="AB35" s="16"/>
-    </row>
-    <row r="36" spans="3:28" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D36" s="13"/>
-      <c r="R36" s="16"/>
-      <c r="S36" s="16"/>
-      <c r="T36" s="16"/>
-      <c r="U36" s="16"/>
-      <c r="V36" s="16"/>
-      <c r="W36" s="16"/>
-      <c r="X36" s="16"/>
-      <c r="Y36" s="16"/>
-      <c r="Z36" s="16"/>
-      <c r="AA36" s="16"/>
-      <c r="AB36" s="16"/>
-    </row>
-    <row r="37" spans="3:28" x14ac:dyDescent="0.35">
-      <c r="R37" s="16"/>
-      <c r="S37" s="16"/>
-      <c r="T37" s="16"/>
-      <c r="U37" s="16"/>
-      <c r="V37" s="16"/>
-      <c r="W37" s="16"/>
-      <c r="X37" s="16"/>
-      <c r="Y37" s="16"/>
-      <c r="Z37" s="16"/>
-      <c r="AA37" s="16"/>
-      <c r="AB37" s="16"/>
-    </row>
-    <row r="38" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="R38" s="16"/>
-      <c r="S38" s="16"/>
-      <c r="T38" s="16"/>
-      <c r="U38" s="16"/>
-      <c r="V38" s="16"/>
-      <c r="W38" s="16"/>
-      <c r="X38" s="18"/>
-      <c r="Y38" s="18"/>
-      <c r="Z38" s="18"/>
-      <c r="AA38" s="18"/>
-      <c r="AB38" s="16"/>
-    </row>
-    <row r="39" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C39" s="7" t="s">
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+    </row>
+    <row r="24" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="25" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R39" s="16"/>
-      <c r="S39" s="16"/>
-      <c r="T39" s="16"/>
-      <c r="U39" s="16"/>
-      <c r="V39" s="16"/>
-      <c r="W39" s="16"/>
-      <c r="X39" s="18"/>
-      <c r="Y39" s="18"/>
-      <c r="Z39" s="18"/>
-      <c r="AA39" s="18"/>
-      <c r="AB39" s="16"/>
-    </row>
-    <row r="40" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C40" s="5" t="s">
+    </row>
+    <row r="26" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="9">
+      <c r="C26" s="8">
         <v>2.5</v>
       </c>
-      <c r="E40" s="10">
+      <c r="D26" s="9">
         <v>1.6</v>
       </c>
-      <c r="F40" s="10">
+      <c r="E26" s="9">
         <v>0.75</v>
       </c>
-      <c r="R40" s="16"/>
-      <c r="S40" s="16"/>
-      <c r="T40" s="16"/>
-      <c r="U40" s="16"/>
-      <c r="V40" s="16"/>
-      <c r="W40" s="16"/>
-      <c r="X40" s="16"/>
-      <c r="Y40" s="16"/>
-      <c r="Z40" s="16"/>
-      <c r="AA40" s="16"/>
-      <c r="AB40" s="16"/>
-    </row>
-    <row r="41" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C41" s="5" t="s">
+    </row>
+    <row r="27" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="5">
+      <c r="C27" s="5">
         <v>1.8</v>
       </c>
-      <c r="E41" s="3">
+      <c r="D27" s="3">
         <v>1.5</v>
       </c>
-      <c r="F41" s="3">
+      <c r="E27" s="3">
         <v>0.82</v>
       </c>
-      <c r="R41" s="16"/>
-      <c r="S41" s="16"/>
-      <c r="T41" s="16"/>
-      <c r="U41" s="16"/>
-      <c r="V41" s="16"/>
-      <c r="W41" s="16"/>
-      <c r="X41" s="16"/>
-      <c r="Y41" s="16"/>
-      <c r="Z41" s="16"/>
-      <c r="AA41" s="16"/>
-      <c r="AB41" s="16"/>
-    </row>
-    <row r="42" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C42" s="5" t="s">
+    </row>
+    <row r="28" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="5">
+      <c r="C28" s="5">
         <v>3.2</v>
       </c>
-      <c r="E42" s="3">
+      <c r="D28" s="3">
         <v>1.7</v>
       </c>
-      <c r="F42" s="3">
+      <c r="E28" s="3">
         <v>0.78</v>
       </c>
     </row>
-    <row r="60" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D60" s="15" t="s">
+    <row r="36" spans="2:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D36" s="12"/>
+    </row>
+    <row r="38" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="X38" s="15"/>
+      <c r="Y38" s="15"/>
+      <c r="Z38" s="15"/>
+      <c r="AA38" s="15"/>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="X39" s="15"/>
+      <c r="Y39" s="15"/>
+      <c r="Z39" s="15"/>
+      <c r="AA39" s="15"/>
+    </row>
+    <row r="45" spans="2:27" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="61" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="62" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C62" s="7" t="s">
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+    </row>
+    <row r="47" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="48" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C63" s="6" t="s">
+    <row r="49" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D63" s="6">
+      <c r="C49" s="6">
         <v>4.5</v>
       </c>
-      <c r="E63" s="8">
+      <c r="D49" s="7">
         <v>2</v>
       </c>
-      <c r="F63" s="8">
+      <c r="E49" s="7">
         <v>0.85</v>
       </c>
     </row>
-    <row r="64" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C64" s="2" t="s">
+    <row r="50" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D64" s="2">
+      <c r="C50" s="2">
         <v>5</v>
       </c>
-      <c r="E64" s="4">
+      <c r="D50" s="4">
         <v>2.1</v>
       </c>
-      <c r="F64" s="4">
+      <c r="E50" s="4">
         <v>0.88</v>
       </c>
     </row>
-    <row r="65" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C65" s="2" t="s">
+    <row r="51" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D65" s="2">
+      <c r="C51" s="2">
         <v>4.8</v>
       </c>
-      <c r="E65" s="4">
+      <c r="D51" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F65" s="4">
+      <c r="E51" s="4">
         <v>0.8</v>
       </c>
     </row>
-    <row r="86" spans="4:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D86" s="15" t="s">
+    <row r="68" spans="2:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="93" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="94" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D94" s="11" t="s">
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+    </row>
+    <row r="70" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="71" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B71" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D95" s="2" t="s">
+    <row r="72" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E95" s="4">
+      <c r="C72" s="4">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="96" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D96" s="2" t="s">
+    <row r="73" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E96" s="12">
+      <c r="C73" s="11">
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="97" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D97" s="2" t="s">
+    <row r="74" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B74" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E97" s="12">
+      <c r="C74" s="11">
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="98" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D98" s="2" t="s">
+    <row r="75" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B75" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E98" s="4">
+      <c r="C75" s="4">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="99" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D99" s="2" t="s">
+    <row r="76" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B76" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E99" s="4">
+      <c r="C76" s="4">
         <v>2.3E-3</v>
       </c>
     </row>
-    <row r="100" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D100" s="2" t="s">
+    <row r="77" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B77" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E100" s="4">
+      <c r="C77" s="4">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="101" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D101" s="2" t="s">
+    <row r="78" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B78" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E101" s="12">
+      <c r="C78" s="11">
         <v>3.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="102" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D102" s="2" t="s">
+    <row r="79" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B79" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E102" s="12">
+      <c r="C79" s="11">
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="103" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D103" s="2" t="s">
+    <row r="80" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B80" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E103" s="12">
+      <c r="C80" s="11">
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="120" spans="4:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D120" s="14" t="s">
+    <row r="97" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C97" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="4:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D121" s="14"/>
-    </row>
-    <row r="125" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="126" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D126" s="11" t="s">
+    <row r="99" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="100" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B100" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E126" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D127" s="2" t="s">
+    <row r="101" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B101" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E127" s="12">
+      <c r="C101" s="11">
         <v>0.99</v>
       </c>
     </row>
-    <row r="128" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D128" s="2" t="s">
+    <row r="102" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B102" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E128" s="12">
+      <c r="C102" s="11">
         <v>0.995</v>
       </c>
     </row>
-    <row r="129" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D129" s="2" t="s">
+    <row r="103" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B103" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E129" s="12">
+      <c r="C103" s="11">
         <v>0.98499999999999999</v>
       </c>
     </row>
-    <row r="130" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D130" s="2" t="s">
+    <row r="104" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B104" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E130" s="4">
+      <c r="C104" s="4">
         <v>0.98</v>
       </c>
     </row>
-    <row r="131" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D131" s="2" t="s">
+    <row r="105" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B105" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E131" s="4">
+      <c r="C105" s="4">
         <v>0.99</v>
       </c>
     </row>
-    <row r="132" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D132" s="2" t="s">
+    <row r="106" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B106" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E132" s="4">
+      <c r="C106" s="4">
         <v>0.97</v>
       </c>
     </row>
-    <row r="133" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D133" s="2" t="s">
+    <row r="107" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B107" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E133" s="12">
+      <c r="C107" s="11">
         <v>0.97399999999999998</v>
       </c>
     </row>
-    <row r="134" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D134" s="2" t="s">
+    <row r="108" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B108" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E134" s="12">
+      <c r="C108" s="11">
         <v>0.98</v>
       </c>
     </row>
-    <row r="135" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D135" s="2" t="s">
+    <row r="109" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B109" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E135" s="12">
+      <c r="C109" s="11">
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="136" spans="4:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D136" s="13"/>
-    </row>
-    <row r="155" spans="4:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D155" s="14" t="s">
+    <row r="121" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D121" s="13"/>
+    </row>
+    <row r="126" spans="2:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B126" s="17" t="s">
         <v>19</v>
       </c>
+      <c r="C126" s="17"/>
+      <c r="D126" s="17"/>
+    </row>
+    <row r="136" spans="4:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D136" s="12"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B126:D126"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
